--- a/biology/Médecine/Isospora/Isospora.xlsx
+++ b/biology/Médecine/Isospora/Isospora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Isospora est un genre de protistes parasites internes de type sporozoaire, classé parmi les Coccidia. Chez le chat, il provoque des diarrhées.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Isospora Schneider, 1881. Isospora rara est l'espèce type[1].
-Isospora a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Isospora Schneider, 1881. Isospora rara est l'espèce type.
+Isospora a pour synonymes :
 Cystoisospora Frenkel, 1977
 Diplospora Labbé, 1893
 Hyaloklossia Labbé, 1896
@@ -547,9 +561,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Taxonomicon  (27 novembre 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Taxonomicon  (27 novembre 2023) :
 Isospora anseris
 Isospora belli
 Isospora bigemina
@@ -567,7 +583,7 @@
 Isospora suis (Biester &amp; Murray, 1934)
 Isospora thibetana S. Perrucci et al., 1998
 Isospora yukonensis Hobbs &amp; Samuel, 1974
-Selon GBIF       (27 novembre 2023)[2] :
+Selon GBIF       (27 novembre 2023) :
 Isospora attilae
 Isospora belli Wenyon, 1923
 Isospora bocagei Modrý &amp; Jirk, 2006
